--- a/final_project/results/Excel/radiographic_data_aggregated.xlsx
+++ b/final_project/results/Excel/radiographic_data_aggregated.xlsx
@@ -676,52 +676,52 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>LL_mean</t>
+          <t>MCL_mean</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>LL_var</t>
+          <t>MCL_var</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>TCA_mean</t>
+          <t>TUA_mean</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>TCA_var</t>
+          <t>TUA_var</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>5MTCA_mean</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>5MTCA_var</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>MT_calA_mean</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>MT_calA_var</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>cal_PA_mean</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>cal_PA_var</t>
+        </is>
+      </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>TUA_mean</t>
+          <t>MA_mean</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>TUA_var</t>
+          <t>MA_var</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
@@ -736,44 +736,44 @@
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
+          <t>5MTCA_mean</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>5MTCA_var</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>TCA_mean</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>TCA_var</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>LL_mean</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>LL_var</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
           <t>ML_mean</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>ML_var</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>MA_mean</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>MA_var</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>MCL_mean</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>MCL_var</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>cal_PA_mean</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>cal_PA_var</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -921,34 +921,34 @@
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.5874999999999999</v>
+        <v>-0.125</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01702499999999999</v>
+        <v>0.0225</v>
       </c>
       <c r="AY2" t="n">
-        <v>30.345</v>
+        <v>24.7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4.289966666666666</v>
+        <v>13.82906666666667</v>
       </c>
       <c r="BA2" t="n">
-        <v>11.5</v>
+        <v>163.205</v>
       </c>
       <c r="BB2" t="n">
-        <v>7</v>
+        <v>45.46196666666659</v>
       </c>
       <c r="BC2" t="n">
-        <v>163.205</v>
+        <v>6.095000000000001</v>
       </c>
       <c r="BD2" t="n">
-        <v>45.46196666666659</v>
+        <v>0.5264333333333332</v>
       </c>
       <c r="BE2" t="n">
-        <v>24.7</v>
+        <v>20.79</v>
       </c>
       <c r="BF2" t="n">
-        <v>13.82906666666667</v>
+        <v>5.675066666666666</v>
       </c>
       <c r="BG2" t="n">
         <v>21.5</v>
@@ -957,28 +957,28 @@
         <v>1.666666666666667</v>
       </c>
       <c r="BI2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>30.345</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>4.289966666666666</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.5874999999999999</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.01702499999999999</v>
+      </c>
+      <c r="BO2" t="n">
         <v>2.7625</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BP2" t="n">
         <v>19.87895833333333</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>20.79</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>5.675066666666666</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>-0.125</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.0225</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>6.095000000000001</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.5264333333333332</v>
       </c>
     </row>
     <row r="3">
@@ -1127,34 +1127,34 @@
         <v>1</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.075</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.009166666666666665</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>32.5</v>
+        <v>13.605</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.666666666666667</v>
+        <v>3.901633333333333</v>
       </c>
       <c r="BA3" t="n">
-        <v>7.75</v>
+        <v>166.6</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.306666666666662</v>
       </c>
       <c r="BC3" t="n">
-        <v>166.6</v>
+        <v>12.3075</v>
       </c>
       <c r="BD3" t="n">
-        <v>1.306666666666662</v>
+        <v>62.54649166666667</v>
       </c>
       <c r="BE3" t="n">
-        <v>13.605</v>
+        <v>20.09</v>
       </c>
       <c r="BF3" t="n">
-        <v>3.901633333333333</v>
+        <v>3.605733333333333</v>
       </c>
       <c r="BG3" t="n">
         <v>23</v>
@@ -1163,28 +1163,28 @@
         <v>3.333333333333333</v>
       </c>
       <c r="BI3" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.009166666666666665</v>
+      </c>
+      <c r="BO3" t="n">
         <v>0.5674999999999999</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BP3" t="n">
         <v>0.01209166666666666</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>20.09</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>3.605733333333333</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>12.3075</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>62.54649166666667</v>
       </c>
     </row>
     <row r="4">
@@ -1333,34 +1333,34 @@
         <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.9025</v>
+        <v>1.225</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.02482499999999999</v>
+        <v>0.02916666666666666</v>
       </c>
       <c r="AY4" t="n">
-        <v>34.9525</v>
+        <v>12.29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>46.91675833333332</v>
+        <v>3.866866666666667</v>
       </c>
       <c r="BA4" t="n">
-        <v>13.415</v>
+        <v>154.7625</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.2489</v>
+        <v>2.450691666666672</v>
       </c>
       <c r="BC4" t="n">
-        <v>154.7625</v>
+        <v>15.725</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.450691666666672</v>
+        <v>5.295766666666667</v>
       </c>
       <c r="BE4" t="n">
-        <v>12.29</v>
+        <v>11.6875</v>
       </c>
       <c r="BF4" t="n">
-        <v>3.866866666666667</v>
+        <v>7.564358333333334</v>
       </c>
       <c r="BG4" t="n">
         <v>10.3275</v>
@@ -1369,28 +1369,28 @@
         <v>20.65849166666666</v>
       </c>
       <c r="BI4" t="n">
+        <v>13.415</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.2489</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>34.9525</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>46.91675833333332</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.9025</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.02482499999999999</v>
+      </c>
+      <c r="BO4" t="n">
         <v>1.605</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BP4" t="n">
         <v>0.03230000000000002</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>11.6875</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>7.564358333333334</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>1.225</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0.02916666666666666</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>15.725</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>5.295766666666667</v>
       </c>
     </row>
     <row r="5">
@@ -1539,34 +1539,34 @@
         <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.1875</v>
+        <v>1.285</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.009691666666666664</v>
+        <v>0.0003666666666666673</v>
       </c>
       <c r="AY5" t="n">
-        <v>34.80249999999999</v>
+        <v>7.2625</v>
       </c>
       <c r="AZ5" t="n">
-        <v>21.20575833333332</v>
+        <v>2.464558333333333</v>
       </c>
       <c r="BA5" t="n">
-        <v>8.75</v>
+        <v>152.59</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.9382666666666667</v>
+        <v>0.1774666666666675</v>
       </c>
       <c r="BC5" t="n">
-        <v>152.59</v>
+        <v>21.375</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.1774666666666675</v>
+        <v>0.2889000000000003</v>
       </c>
       <c r="BE5" t="n">
-        <v>7.2625</v>
+        <v>5.68</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.464558333333333</v>
+        <v>0.8031999999999999</v>
       </c>
       <c r="BG5" t="n">
         <v>13.53</v>
@@ -1575,28 +1575,28 @@
         <v>1.7156</v>
       </c>
       <c r="BI5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.9382666666666667</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>34.80249999999999</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>21.20575833333332</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.009691666666666664</v>
+      </c>
+      <c r="BO5" t="n">
         <v>1.7075</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BP5" t="n">
         <v>0.03409166666666667</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0.8031999999999999</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>1.285</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>0.0003666666666666673</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>21.375</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>0.2889000000000003</v>
       </c>
     </row>
     <row r="6">
@@ -1745,34 +1745,34 @@
         <v>1</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.6725</v>
+        <v>0.15</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.001424999999999995</v>
+        <v>0.03</v>
       </c>
       <c r="AY6" t="n">
-        <v>40.675</v>
+        <v>19.505</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6.672099999999996</v>
+        <v>5.473366666666663</v>
       </c>
       <c r="BA6" t="n">
-        <v>7.99</v>
+        <v>158.005</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.4868000000000003</v>
+        <v>3.33333333332727e-05</v>
       </c>
       <c r="BC6" t="n">
-        <v>158.005</v>
+        <v>16.49</v>
       </c>
       <c r="BD6" t="n">
-        <v>3.33333333332727e-05</v>
+        <v>0.1764000000000001</v>
       </c>
       <c r="BE6" t="n">
-        <v>19.505</v>
+        <v>15.4225</v>
       </c>
       <c r="BF6" t="n">
-        <v>5.473366666666663</v>
+        <v>2.786825</v>
       </c>
       <c r="BG6" t="n">
         <v>18.06</v>
@@ -1781,28 +1781,28 @@
         <v>7.4622</v>
       </c>
       <c r="BI6" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.4868000000000003</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>40.675</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>6.672099999999996</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1.6725</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.001424999999999995</v>
+      </c>
+      <c r="BO6" t="n">
         <v>1.44</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BP6" t="n">
         <v>0.01146666666666666</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>15.4225</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>2.786825</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0.1764000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1949,34 +1949,34 @@
         <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.68</v>
+        <v>0.22</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.005266666666666665</v>
+        <v>0.0005333333333333328</v>
       </c>
       <c r="AY7" t="n">
-        <v>35.9375</v>
+        <v>19.615</v>
       </c>
       <c r="AZ7" t="n">
-        <v>90.10589166666666</v>
+        <v>21.3289</v>
       </c>
       <c r="BA7" t="n">
-        <v>7.605</v>
+        <v>156.575</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.2097</v>
+        <v>0.9517666666666634</v>
       </c>
       <c r="BC7" t="n">
-        <v>156.575</v>
+        <v>18.585</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.9517666666666634</v>
+        <v>0.5029666666666676</v>
       </c>
       <c r="BE7" t="n">
-        <v>19.615</v>
+        <v>16.87666666666667</v>
       </c>
       <c r="BF7" t="n">
-        <v>21.3289</v>
+        <v>3.415633333333332</v>
       </c>
       <c r="BG7" t="n">
         <v>18.99</v>
@@ -1985,28 +1985,28 @@
         <v>5.522066666666667</v>
       </c>
       <c r="BI7" t="n">
+        <v>7.605</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.2097</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>35.9375</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>90.10589166666666</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.005266666666666665</v>
+      </c>
+      <c r="BO7" t="n">
         <v>1.4</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BP7" t="n">
         <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>16.87666666666667</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>3.415633333333332</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0.0005333333333333328</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>18.585</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0.5029666666666676</v>
       </c>
     </row>
     <row r="8">
@@ -2155,34 +2155,34 @@
         <v>1</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.945</v>
+        <v>2.7</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.002766666666666665</v>
+        <v>20.31173333333334</v>
       </c>
       <c r="AY8" t="n">
-        <v>36.27</v>
+        <v>12.9675</v>
       </c>
       <c r="AZ8" t="n">
-        <v>4.737799999999996</v>
+        <v>1.132891666666667</v>
       </c>
       <c r="BA8" t="n">
-        <v>15.785</v>
+        <v>160.955</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.09103333333333348</v>
+        <v>0.006966666666665837</v>
       </c>
       <c r="BC8" t="n">
-        <v>160.955</v>
+        <v>15.0925</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.006966666666665837</v>
+        <v>1.078491666666667</v>
       </c>
       <c r="BE8" t="n">
-        <v>12.9675</v>
+        <v>12.035</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.132891666666667</v>
+        <v>0.5563666666666668</v>
       </c>
       <c r="BG8" t="n">
         <v>14.2175</v>
@@ -2191,28 +2191,28 @@
         <v>2.180158333333333</v>
       </c>
       <c r="BI8" t="n">
+        <v>15.785</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.09103333333333348</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>36.27</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>4.737799999999996</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.002766666666666665</v>
+      </c>
+      <c r="BO8" t="n">
         <v>1.42</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BP8" t="n">
         <v>0.002200000000000004</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>12.035</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0.5563666666666668</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>20.31173333333334</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>15.0925</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>1.078491666666667</v>
       </c>
     </row>
     <row r="9">
@@ -2361,34 +2361,34 @@
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.1225</v>
+        <v>0.3724999999999999</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.002024999999999993</v>
+        <v>0.001825000000000001</v>
       </c>
       <c r="AY9" t="n">
-        <v>35.545</v>
+        <v>5.8825</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.3360333333333336</v>
+        <v>0.952425</v>
       </c>
       <c r="BA9" t="n">
-        <v>16.1825</v>
+        <v>156.9225</v>
       </c>
       <c r="BB9" t="n">
-        <v>8.373091666666669</v>
+        <v>0.5250916666666725</v>
       </c>
       <c r="BC9" t="n">
-        <v>156.9225</v>
+        <v>17.7975</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.5250916666666725</v>
+        <v>0.05949166666666639</v>
       </c>
       <c r="BE9" t="n">
-        <v>5.8825</v>
+        <v>15.1475</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.952425</v>
+        <v>0.0471583333333335</v>
       </c>
       <c r="BG9" t="n">
         <v>11.82</v>
@@ -2397,28 +2397,28 @@
         <v>6.275466666666666</v>
       </c>
       <c r="BI9" t="n">
+        <v>16.1825</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>8.373091666666669</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>35.545</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.3360333333333336</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1.1225</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.002024999999999993</v>
+      </c>
+      <c r="BO9" t="n">
         <v>1.4525</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BP9" t="n">
         <v>0.007691666666666666</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>15.1475</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>0.0471583333333335</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>0.3724999999999999</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>0.001825000000000001</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>17.7975</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>0.05949166666666639</v>
       </c>
     </row>
     <row r="10">
@@ -2567,34 +2567,34 @@
         <v>1</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.3975</v>
+        <v>-0.125</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.08282500000000004</v>
+        <v>0.0225</v>
       </c>
       <c r="AY10" t="n">
-        <v>34.085</v>
+        <v>19.1175</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.187233333333337</v>
+        <v>63.758425</v>
       </c>
       <c r="BA10" t="n">
-        <v>15.635</v>
+        <v>163.03</v>
       </c>
       <c r="BB10" t="n">
-        <v>4.233366666666665</v>
+        <v>0.4964666666666622</v>
       </c>
       <c r="BC10" t="n">
-        <v>163.03</v>
+        <v>12.855</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.4964666666666622</v>
+        <v>0.07663333333333351</v>
       </c>
       <c r="BE10" t="n">
-        <v>19.1175</v>
+        <v>20.9025</v>
       </c>
       <c r="BF10" t="n">
-        <v>63.758425</v>
+        <v>4.306424999999998</v>
       </c>
       <c r="BG10" t="n">
         <v>18.6775</v>
@@ -2603,28 +2603,28 @@
         <v>12.14415833333333</v>
       </c>
       <c r="BI10" t="n">
+        <v>15.635</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>4.233366666666665</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>34.085</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1.187233333333337</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1.3975</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.08282500000000004</v>
+      </c>
+      <c r="BO10" t="n">
         <v>0.8200000000000001</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BP10" t="n">
         <v>0.001133333333333332</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>20.9025</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>4.306424999999998</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>-0.125</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0.0225</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>12.855</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0.07663333333333351</v>
       </c>
     </row>
     <row r="11">
@@ -2773,34 +2773,34 @@
         <v>1</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.095</v>
+        <v>0.325</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.001099999999999997</v>
+        <v>0.0011</v>
       </c>
       <c r="AY11" t="n">
-        <v>31.075</v>
+        <v>21.005</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1.307500000000002</v>
+        <v>42.90836666666666</v>
       </c>
       <c r="BA11" t="n">
-        <v>16.86</v>
+        <v>162.39</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.673066666666666</v>
+        <v>0.8697333333333342</v>
       </c>
       <c r="BC11" t="n">
-        <v>162.39</v>
+        <v>14.2075</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.8697333333333342</v>
+        <v>0.4787583333333338</v>
       </c>
       <c r="BE11" t="n">
-        <v>21.005</v>
+        <v>14.8425</v>
       </c>
       <c r="BF11" t="n">
-        <v>42.90836666666666</v>
+        <v>1.131758333333333</v>
       </c>
       <c r="BG11" t="n">
         <v>20.6125</v>
@@ -2809,28 +2809,28 @@
         <v>3.23555833333333</v>
       </c>
       <c r="BI11" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1.673066666666666</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>31.075</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1.307500000000002</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.001099999999999997</v>
+      </c>
+      <c r="BO11" t="n">
         <v>0.9825</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BP11" t="n">
         <v>0.003491666666666667</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>14.8425</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>1.131758333333333</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>14.2075</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>0.4787583333333338</v>
       </c>
     </row>
     <row r="12">
@@ -2979,34 +2979,34 @@
         <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.4525</v>
+        <v>0.78</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.004491666666666675</v>
+        <v>0.003133333333333335</v>
       </c>
       <c r="AY12" t="n">
-        <v>32.2525</v>
+        <v>8.164999999999999</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2.823824999999998</v>
+        <v>4.009633333333334</v>
       </c>
       <c r="BA12" t="n">
-        <v>15.94</v>
+        <v>157.8425</v>
       </c>
       <c r="BB12" t="n">
-        <v>4.746466666666669</v>
+        <v>0.4998916666666616</v>
       </c>
       <c r="BC12" t="n">
-        <v>157.8425</v>
+        <v>15.7875</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.4998916666666616</v>
+        <v>0.06622499999999991</v>
       </c>
       <c r="BE12" t="n">
-        <v>8.164999999999999</v>
+        <v>13.7875</v>
       </c>
       <c r="BF12" t="n">
-        <v>4.009633333333334</v>
+        <v>4.932891666666667</v>
       </c>
       <c r="BG12" t="n">
         <v>5.297499999999999</v>
@@ -3015,28 +3015,28 @@
         <v>1.610025</v>
       </c>
       <c r="BI12" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>4.746466666666669</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>32.2525</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>2.823824999999998</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1.4525</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0.004491666666666675</v>
+      </c>
+      <c r="BO12" t="n">
         <v>1.755</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BP12" t="n">
         <v>0.03209999999999996</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>13.7875</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>4.932891666666667</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>0.003133333333333335</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>15.7875</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>0.06622499999999991</v>
       </c>
     </row>
     <row r="13">
@@ -3185,34 +3185,34 @@
         <v>1</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.285</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0003666666666666673</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>35.7475</v>
+        <v>15.6425</v>
       </c>
       <c r="AZ13" t="n">
-        <v>4.264358333333333</v>
+        <v>5.105224999999999</v>
       </c>
       <c r="BA13" t="n">
-        <v>10.6575</v>
+        <v>161.655</v>
       </c>
       <c r="BB13" t="n">
-        <v>5.141891666666667</v>
+        <v>1.716100000000006</v>
       </c>
       <c r="BC13" t="n">
-        <v>161.655</v>
+        <v>12.8475</v>
       </c>
       <c r="BD13" t="n">
-        <v>1.716100000000006</v>
+        <v>0.03835833333333333</v>
       </c>
       <c r="BE13" t="n">
-        <v>15.6425</v>
+        <v>22.1725</v>
       </c>
       <c r="BF13" t="n">
-        <v>5.105224999999999</v>
+        <v>9.083691666666668</v>
       </c>
       <c r="BG13" t="n">
         <v>11.5025</v>
@@ -3221,28 +3221,28 @@
         <v>8.630691666666666</v>
       </c>
       <c r="BI13" t="n">
+        <v>10.6575</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>5.141891666666667</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>35.7475</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>4.264358333333333</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1.285</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0.0003666666666666673</v>
+      </c>
+      <c r="BO13" t="n">
         <v>1.0975</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BP13" t="n">
         <v>0.002824999999999995</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>22.1725</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>9.083691666666668</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>12.8475</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>0.03835833333333333</v>
       </c>
     </row>
     <row r="14">
@@ -3391,34 +3391,34 @@
         <v>1</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.765</v>
+        <v>0.9175</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.03503333333333333</v>
+        <v>0.0004249999999999991</v>
       </c>
       <c r="AY14" t="n">
-        <v>33.0175</v>
+        <v>9.952500000000001</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2.347491666666668</v>
+        <v>2.320491666666668</v>
       </c>
       <c r="BA14" t="n">
-        <v>16.3</v>
+        <v>153.0725</v>
       </c>
       <c r="BB14" t="n">
-        <v>9.785066666666664</v>
+        <v>0.7944916666666719</v>
       </c>
       <c r="BC14" t="n">
-        <v>153.0725</v>
+        <v>22.435</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.7944916666666719</v>
+        <v>1.281700000000002</v>
       </c>
       <c r="BE14" t="n">
-        <v>9.952500000000001</v>
+        <v>3</v>
       </c>
       <c r="BF14" t="n">
-        <v>2.320491666666668</v>
+        <v>0.1176</v>
       </c>
       <c r="BG14" t="n">
         <v>5.72</v>
@@ -3427,28 +3427,28 @@
         <v>1.554466666666667</v>
       </c>
       <c r="BI14" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>9.785066666666664</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>33.0175</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>2.347491666666668</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0.03503333333333333</v>
+      </c>
+      <c r="BO14" t="n">
         <v>1.5975</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="BP14" t="n">
         <v>0.004691666666666661</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0.1176</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0.9175</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0.0004249999999999991</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>22.435</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>1.281700000000002</v>
       </c>
     </row>
     <row r="15">
@@ -3597,34 +3597,34 @@
         <v>1</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.5275</v>
+        <v>0.9225</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.003025000000000006</v>
+        <v>0.003491666666666666</v>
       </c>
       <c r="AY15" t="n">
-        <v>31.96</v>
+        <v>9.335000000000001</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17.0072</v>
+        <v>5.832566666666666</v>
       </c>
       <c r="BA15" t="n">
-        <v>16.93</v>
+        <v>150.8025</v>
       </c>
       <c r="BB15" t="n">
-        <v>19.3482</v>
+        <v>1.859491666666656</v>
       </c>
       <c r="BC15" t="n">
-        <v>150.8025</v>
+        <v>21.675</v>
       </c>
       <c r="BD15" t="n">
-        <v>1.859491666666656</v>
+        <v>0.7425000000000003</v>
       </c>
       <c r="BE15" t="n">
-        <v>9.335000000000001</v>
+        <v>5.1075</v>
       </c>
       <c r="BF15" t="n">
-        <v>5.832566666666666</v>
+        <v>2.434091666666667</v>
       </c>
       <c r="BG15" t="n">
         <v>10.7975</v>
@@ -3633,28 +3633,28 @@
         <v>37.52175833333333</v>
       </c>
       <c r="BI15" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>19.3482</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>17.0072</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>1.5275</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0.003025000000000006</v>
+      </c>
+      <c r="BO15" t="n">
         <v>1.46</v>
       </c>
-      <c r="BJ15" t="n">
+      <c r="BP15" t="n">
         <v>0.01206666666666666</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>5.1075</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>2.434091666666667</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0.9225</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>0.003491666666666666</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>21.675</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>0.7425000000000003</v>
       </c>
     </row>
     <row r="16">
@@ -3803,34 +3803,34 @@
         <v>1</v>
       </c>
       <c r="AW16" t="n">
-        <v>1.455</v>
+        <v>1.0825</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.04576666666666667</v>
+        <v>0.01949166666666667</v>
       </c>
       <c r="AY16" t="n">
-        <v>33.975</v>
+        <v>18.91</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.7507666666666649</v>
+        <v>65.40419999999999</v>
       </c>
       <c r="BA16" t="n">
-        <v>14.8875</v>
+        <v>156.3625</v>
       </c>
       <c r="BB16" t="n">
-        <v>22.780225</v>
+        <v>0.2956250000000025</v>
       </c>
       <c r="BC16" t="n">
-        <v>156.3625</v>
+        <v>16.22</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.2956250000000025</v>
+        <v>0.1286000000000001</v>
       </c>
       <c r="BE16" t="n">
-        <v>18.91</v>
+        <v>8.85</v>
       </c>
       <c r="BF16" t="n">
-        <v>65.40419999999999</v>
+        <v>3.796666666666667</v>
       </c>
       <c r="BG16" t="n">
         <v>16.4825</v>
@@ -3839,28 +3839,28 @@
         <v>29.74749166666667</v>
       </c>
       <c r="BI16" t="n">
+        <v>14.8875</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>22.780225</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>33.975</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0.7507666666666649</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0.04576666666666667</v>
+      </c>
+      <c r="BO16" t="n">
         <v>1.7875</v>
       </c>
-      <c r="BJ16" t="n">
+      <c r="BP16" t="n">
         <v>0.0002250000000000004</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>3.796666666666667</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>1.0825</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>0.01949166666666667</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>0.1286000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -4009,34 +4009,34 @@
         <v>1</v>
       </c>
       <c r="AW17" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.006066666666666679</v>
+        <v>0.002866666666666672</v>
       </c>
       <c r="AY17" t="n">
-        <v>37.33</v>
+        <v>15.69</v>
       </c>
       <c r="AZ17" t="n">
-        <v>5.251866666666665</v>
+        <v>7.256733333333332</v>
       </c>
       <c r="BA17" t="n">
-        <v>10.125</v>
+        <v>152.165</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.6970999999999998</v>
+        <v>0.04056666666666611</v>
       </c>
       <c r="BC17" t="n">
-        <v>152.165</v>
+        <v>20.7125</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.04056666666666611</v>
+        <v>0.1470249999999995</v>
       </c>
       <c r="BE17" t="n">
-        <v>15.69</v>
+        <v>10.5375</v>
       </c>
       <c r="BF17" t="n">
-        <v>7.256733333333332</v>
+        <v>5.022024999999999</v>
       </c>
       <c r="BG17" t="n">
         <v>10.995</v>
@@ -4045,28 +4045,28 @@
         <v>0.5066999999999998</v>
       </c>
       <c r="BI17" t="n">
+        <v>10.125</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0.6970999999999998</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>5.251866666666665</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0.006066666666666679</v>
+      </c>
+      <c r="BO17" t="n">
         <v>1.715</v>
       </c>
-      <c r="BJ17" t="n">
+      <c r="BP17" t="n">
         <v>0.003366666666666672</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>10.5375</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>5.022024999999999</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>0.002866666666666672</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>20.7125</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>0.1470249999999995</v>
       </c>
     </row>
     <row r="18">
@@ -4215,34 +4215,34 @@
         <v>1</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.675</v>
+        <v>0.3675</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.01670000000000001</v>
+        <v>0.540225</v>
       </c>
       <c r="AY18" t="n">
-        <v>26.25</v>
+        <v>20.4525</v>
       </c>
       <c r="AZ18" t="n">
-        <v>13.54553333333334</v>
+        <v>41.672425</v>
       </c>
       <c r="BA18" t="n">
-        <v>19.145</v>
+        <v>161.8725</v>
       </c>
       <c r="BB18" t="n">
-        <v>6.873500000000003</v>
+        <v>2.10542500000002</v>
       </c>
       <c r="BC18" t="n">
-        <v>161.8725</v>
+        <v>11.035</v>
       </c>
       <c r="BD18" t="n">
-        <v>2.10542500000002</v>
+        <v>0.4802999999999998</v>
       </c>
       <c r="BE18" t="n">
-        <v>20.4525</v>
+        <v>16.07</v>
       </c>
       <c r="BF18" t="n">
-        <v>41.672425</v>
+        <v>3.514200000000002</v>
       </c>
       <c r="BG18" t="n">
         <v>25.35</v>
@@ -4251,28 +4251,28 @@
         <v>10.8862</v>
       </c>
       <c r="BI18" t="n">
+        <v>19.145</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>6.873500000000003</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>13.54553333333334</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0.01670000000000001</v>
+      </c>
+      <c r="BO18" t="n">
         <v>1.1475</v>
       </c>
-      <c r="BJ18" t="n">
+      <c r="BP18" t="n">
         <v>0.048425</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>3.514200000000002</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0.3675</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>0.540225</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>11.035</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0.4802999999999998</v>
       </c>
     </row>
     <row r="19">
@@ -4421,34 +4421,34 @@
         <v>1</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.7125</v>
+        <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.006891666666666661</v>
+        <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>28.2825</v>
+        <v>22.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.812558333333334</v>
+        <v>1</v>
       </c>
       <c r="BA19" t="n">
-        <v>17.1375</v>
+        <v>161.5</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.9440250000000002</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="BC19" t="n">
-        <v>161.5</v>
+        <v>10.5075</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.167158333333333</v>
       </c>
       <c r="BE19" t="n">
-        <v>22.5</v>
+        <v>16.8275</v>
       </c>
       <c r="BF19" t="n">
-        <v>1</v>
+        <v>1.483825000000001</v>
       </c>
       <c r="BG19" t="n">
         <v>24.25</v>
@@ -4457,28 +4457,28 @@
         <v>26.91666666666667</v>
       </c>
       <c r="BI19" t="n">
+        <v>17.1375</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0.9440250000000002</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>28.2825</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0.812558333333334</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>1.7125</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0.006891666666666661</v>
+      </c>
+      <c r="BO19" t="n">
         <v>1.135</v>
       </c>
-      <c r="BJ19" t="n">
+      <c r="BP19" t="n">
         <v>0.004033333333333326</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>16.8275</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>1.483825000000001</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>10.5075</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>1.167158333333333</v>
       </c>
     </row>
     <row r="20">
@@ -4627,34 +4627,34 @@
         <v>0</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.007400000000000005</v>
+        <v>0.04706666666666668</v>
       </c>
       <c r="AY20" t="n">
-        <v>30.615</v>
+        <v>18.7175</v>
       </c>
       <c r="AZ20" t="n">
-        <v>2.792033333333331</v>
+        <v>40.03909166666667</v>
       </c>
       <c r="BA20" t="n">
-        <v>16.8875</v>
+        <v>162.4525</v>
       </c>
       <c r="BB20" t="n">
-        <v>31.084225</v>
+        <v>0.6050250000000043</v>
       </c>
       <c r="BC20" t="n">
-        <v>162.4525</v>
+        <v>9.897500000000001</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.6050250000000043</v>
+        <v>0.9088249999999998</v>
       </c>
       <c r="BE20" t="n">
-        <v>18.7175</v>
+        <v>19.7725</v>
       </c>
       <c r="BF20" t="n">
-        <v>40.03909166666667</v>
+        <v>3.246091666666665</v>
       </c>
       <c r="BG20" t="n">
         <v>21.705</v>
@@ -4663,28 +4663,28 @@
         <v>19.99096666666667</v>
       </c>
       <c r="BI20" t="n">
+        <v>16.8875</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>31.084225</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>30.615</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2.792033333333331</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0.007400000000000005</v>
+      </c>
+      <c r="BO20" t="n">
         <v>1.3775</v>
       </c>
-      <c r="BJ20" t="n">
+      <c r="BP20" t="n">
         <v>0.03335833333333332</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>19.7725</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>3.246091666666665</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>0.04706666666666668</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>9.897500000000001</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0.9088249999999998</v>
       </c>
     </row>
     <row r="21">
@@ -4833,34 +4833,34 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.6775</v>
+        <v>0.6025</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.008425000000000004</v>
+        <v>0.006691666666666664</v>
       </c>
       <c r="AY21" t="n">
-        <v>34.845</v>
+        <v>15.68</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7.594766666666665</v>
+        <v>12.36513333333333</v>
       </c>
       <c r="BA21" t="n">
-        <v>22.6775</v>
+        <v>166.135</v>
       </c>
       <c r="BB21" t="n">
-        <v>31.18749166666667</v>
+        <v>2.042699999999988</v>
       </c>
       <c r="BC21" t="n">
-        <v>166.135</v>
+        <v>6.185</v>
       </c>
       <c r="BD21" t="n">
-        <v>2.042699999999988</v>
+        <v>0.05869999999999997</v>
       </c>
       <c r="BE21" t="n">
-        <v>15.68</v>
+        <v>28.585</v>
       </c>
       <c r="BF21" t="n">
-        <v>12.36513333333333</v>
+        <v>1.191233333333333</v>
       </c>
       <c r="BG21" t="n">
         <v>23.025</v>
@@ -4869,28 +4869,28 @@
         <v>6.293100000000002</v>
       </c>
       <c r="BI21" t="n">
+        <v>22.6775</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>31.18749166666667</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>34.845</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>7.594766666666665</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0.6775</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0.008425000000000004</v>
+      </c>
+      <c r="BO21" t="n">
         <v>1.12</v>
       </c>
-      <c r="BJ21" t="n">
+      <c r="BP21" t="n">
         <v>0.02026666666666667</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>28.585</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>1.191233333333333</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0.6025</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>0.006691666666666664</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>6.185</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0.05869999999999997</v>
       </c>
     </row>
     <row r="22">
@@ -5039,34 +5039,34 @@
         <v>1</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.6749999999999999</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.001133333333333332</v>
+        <v>0.0121</v>
       </c>
       <c r="AY22" t="n">
-        <v>32.385</v>
+        <v>1.265</v>
       </c>
       <c r="AZ22" t="n">
-        <v>68.00429999999999</v>
+        <v>0.2405666666666667</v>
       </c>
       <c r="BA22" t="n">
-        <v>12.75</v>
+        <v>163.775</v>
       </c>
       <c r="BB22" t="n">
-        <v>16.02526666666667</v>
+        <v>1.015833333333327</v>
       </c>
       <c r="BC22" t="n">
-        <v>163.775</v>
+        <v>8.342499999999999</v>
       </c>
       <c r="BD22" t="n">
-        <v>1.015833333333327</v>
+        <v>23.54349166666667</v>
       </c>
       <c r="BE22" t="n">
-        <v>1.265</v>
+        <v>14.6775</v>
       </c>
       <c r="BF22" t="n">
-        <v>0.2405666666666667</v>
+        <v>45.34242500000001</v>
       </c>
       <c r="BG22" t="n">
         <v>14.175</v>
@@ -5075,28 +5075,28 @@
         <v>6.515566666666666</v>
       </c>
       <c r="BI22" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>16.02526666666667</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>32.385</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>68.00429999999999</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0.001133333333333332</v>
+      </c>
+      <c r="BO22" t="n">
         <v>1.3675</v>
       </c>
-      <c r="BJ22" t="n">
+      <c r="BP22" t="n">
         <v>0.002224999999999994</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>14.6775</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>45.34242500000001</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0.6749999999999999</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>0.0121</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>8.342499999999999</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>23.54349166666667</v>
       </c>
     </row>
     <row r="23">
@@ -5245,34 +5245,34 @@
         <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.8975</v>
+        <v>0.5225</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.009491666666666667</v>
+        <v>0.003491666666666665</v>
       </c>
       <c r="AY23" t="n">
-        <v>26.695</v>
+        <v>4.295</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.2254333333333334</v>
+        <v>2.454766666666667</v>
       </c>
       <c r="BA23" t="n">
-        <v>6.01</v>
+        <v>165.0075</v>
       </c>
       <c r="BB23" t="n">
-        <v>11.9218</v>
+        <v>0.6668916666666668</v>
       </c>
       <c r="BC23" t="n">
-        <v>165.0075</v>
+        <v>10.7925</v>
       </c>
       <c r="BD23" t="n">
-        <v>0.6668916666666668</v>
+        <v>1.467825000000001</v>
       </c>
       <c r="BE23" t="n">
-        <v>4.295</v>
+        <v>8.42</v>
       </c>
       <c r="BF23" t="n">
-        <v>2.454766666666667</v>
+        <v>2.7056</v>
       </c>
       <c r="BG23" t="n">
         <v>6.890000000000001</v>
@@ -5281,28 +5281,28 @@
         <v>20.88340000000001</v>
       </c>
       <c r="BI23" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>11.9218</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>26.695</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0.2254333333333334</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0.8975</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0.009491666666666667</v>
+      </c>
+      <c r="BO23" t="n">
         <v>1.21</v>
       </c>
-      <c r="BJ23" t="n">
+      <c r="BP23" t="n">
         <v>0.01106666666666667</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>2.7056</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0.5225</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>0.003491666666666665</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>10.7925</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>1.467825000000001</v>
       </c>
     </row>
     <row r="24">
@@ -5451,34 +5451,34 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.79</v>
+        <v>0.31</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.1004</v>
+        <v>0.0018</v>
       </c>
       <c r="AY24" t="n">
-        <v>34.44</v>
+        <v>17.4325</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1.098200000000003</v>
+        <v>21.75409166666666</v>
       </c>
       <c r="BA24" t="n">
-        <v>17.835</v>
+        <v>169.765</v>
       </c>
       <c r="BB24" t="n">
-        <v>19.49736666666666</v>
+        <v>0.9137000000000123</v>
       </c>
       <c r="BC24" t="n">
-        <v>169.765</v>
+        <v>7.657500000000001</v>
       </c>
       <c r="BD24" t="n">
-        <v>0.9137000000000123</v>
+        <v>1.089091666666667</v>
       </c>
       <c r="BE24" t="n">
-        <v>17.4325</v>
+        <v>21.9425</v>
       </c>
       <c r="BF24" t="n">
-        <v>21.75409166666666</v>
+        <v>18.90789166666666</v>
       </c>
       <c r="BG24" t="n">
         <v>22.7275</v>
@@ -5487,28 +5487,28 @@
         <v>6.036358333333339</v>
       </c>
       <c r="BI24" t="n">
+        <v>17.835</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>19.49736666666666</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1.098200000000003</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0.1004</v>
+      </c>
+      <c r="BO24" t="n">
         <v>1.0275</v>
       </c>
-      <c r="BJ24" t="n">
+      <c r="BP24" t="n">
         <v>0.005158333333333342</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>21.9425</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>18.90789166666666</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>7.657500000000001</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>1.089091666666667</v>
       </c>
     </row>
     <row r="25">
@@ -5657,34 +5657,34 @@
         <v>1</v>
       </c>
       <c r="AW25" t="n">
-        <v>0.8774999999999999</v>
+        <v>0.4525</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.112425</v>
+        <v>0.007824999999999999</v>
       </c>
       <c r="AY25" t="n">
-        <v>36.295</v>
+        <v>12.8925</v>
       </c>
       <c r="AZ25" t="n">
-        <v>18.10436666666666</v>
+        <v>35.37582499999999</v>
       </c>
       <c r="BA25" t="n">
-        <v>18.505</v>
+        <v>166.0675</v>
       </c>
       <c r="BB25" t="n">
-        <v>9.943766666666667</v>
+        <v>0.9964916666666618</v>
       </c>
       <c r="BC25" t="n">
-        <v>166.0675</v>
+        <v>10.0975</v>
       </c>
       <c r="BD25" t="n">
-        <v>0.9964916666666618</v>
+        <v>1.174825</v>
       </c>
       <c r="BE25" t="n">
-        <v>12.8925</v>
+        <v>21.6275</v>
       </c>
       <c r="BF25" t="n">
-        <v>35.37582499999999</v>
+        <v>4.482091666666665</v>
       </c>
       <c r="BG25" t="n">
         <v>16.2125</v>
@@ -5693,28 +5693,28 @@
         <v>14.55889166666667</v>
       </c>
       <c r="BI25" t="n">
+        <v>18.505</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>9.943766666666667</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>36.295</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>18.10436666666666</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0.8774999999999999</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0.112425</v>
+      </c>
+      <c r="BO25" t="n">
         <v>0.9674999999999999</v>
       </c>
-      <c r="BJ25" t="n">
+      <c r="BP25" t="n">
         <v>0.003425000000000001</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>21.6275</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>4.482091666666665</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0.4525</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>0.007824999999999999</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>10.0975</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>1.174825</v>
       </c>
     </row>
     <row r="26">
@@ -5861,34 +5861,34 @@
         <v>1</v>
       </c>
       <c r="AW26" t="n">
-        <v>1.19</v>
+        <v>0.3425</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.009200000000000003</v>
+        <v>0.007224999999999998</v>
       </c>
       <c r="AY26" t="n">
-        <v>26.05</v>
+        <v>14.7975</v>
       </c>
       <c r="AZ26" t="n">
-        <v>2.196666666666668</v>
+        <v>5.385091666666668</v>
       </c>
       <c r="BA26" t="n">
-        <v>17.6825</v>
+        <v>166.3133333333333</v>
       </c>
       <c r="BB26" t="n">
-        <v>14.172425</v>
+        <v>2.234533333333329</v>
       </c>
       <c r="BC26" t="n">
-        <v>166.3133333333333</v>
+        <v>11.62</v>
       </c>
       <c r="BD26" t="n">
-        <v>2.234533333333329</v>
+        <v>0.6232666666666672</v>
       </c>
       <c r="BE26" t="n">
-        <v>14.7975</v>
+        <v>14.1775</v>
       </c>
       <c r="BF26" t="n">
-        <v>5.385091666666668</v>
+        <v>4.476025000000001</v>
       </c>
       <c r="BG26" t="n">
         <v>53.105</v>
@@ -5897,28 +5897,28 @@
         <v>5716.398766666668</v>
       </c>
       <c r="BI26" t="n">
+        <v>17.6825</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>14.172425</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>2.196666666666668</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>0.009200000000000003</v>
+      </c>
+      <c r="BO26" t="n">
         <v>1.3475</v>
       </c>
-      <c r="BJ26" t="n">
+      <c r="BP26" t="n">
         <v>0.002091666666666663</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>14.1775</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>4.476025000000001</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>0.3425</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>0.007224999999999998</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="BP26" t="n">
-        <v>0.6232666666666672</v>
       </c>
     </row>
     <row r="27">
@@ -6067,34 +6067,34 @@
         <v>1</v>
       </c>
       <c r="AW27" t="n">
-        <v>0.835</v>
+        <v>0.245</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.003300000000000001</v>
+        <v>0.01076666666666667</v>
       </c>
       <c r="AY27" t="n">
-        <v>25.14</v>
+        <v>10.3775</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25.75946666666666</v>
+        <v>0.230025</v>
       </c>
       <c r="BA27" t="n">
-        <v>19.2775</v>
+        <v>163.7375</v>
       </c>
       <c r="BB27" t="n">
-        <v>3.587358333333336</v>
+        <v>0.2422916666666651</v>
       </c>
       <c r="BC27" t="n">
-        <v>163.7375</v>
+        <v>10.4625</v>
       </c>
       <c r="BD27" t="n">
-        <v>0.2422916666666651</v>
+        <v>1.127225000000001</v>
       </c>
       <c r="BE27" t="n">
-        <v>10.3775</v>
+        <v>13.9625</v>
       </c>
       <c r="BF27" t="n">
-        <v>0.230025</v>
+        <v>9.867891666666665</v>
       </c>
       <c r="BG27" t="n">
         <v>20.505</v>
@@ -6103,28 +6103,28 @@
         <v>67.87843333333335</v>
       </c>
       <c r="BI27" t="n">
+        <v>19.2775</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>3.587358333333336</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>25.75946666666666</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>0.003300000000000001</v>
+      </c>
+      <c r="BO27" t="n">
         <v>0.9775</v>
       </c>
-      <c r="BJ27" t="n">
+      <c r="BP27" t="n">
         <v>0.008691666666666672</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>13.9625</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>9.867891666666665</v>
-      </c>
-      <c r="BM27" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="BN27" t="n">
-        <v>0.01076666666666667</v>
-      </c>
-      <c r="BO27" t="n">
-        <v>10.4625</v>
-      </c>
-      <c r="BP27" t="n">
-        <v>1.127225000000001</v>
       </c>
     </row>
     <row r="28">
@@ -6273,34 +6273,34 @@
         <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>0.6425000000000001</v>
+        <v>0.305</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.007225000000000005</v>
+        <v>0.008633333333333337</v>
       </c>
       <c r="AY28" t="n">
-        <v>26.8425</v>
+        <v>11.105</v>
       </c>
       <c r="AZ28" t="n">
-        <v>8.671758333333338</v>
+        <v>8.256366666666667</v>
       </c>
       <c r="BA28" t="n">
-        <v>21.285</v>
+        <v>167.4</v>
       </c>
       <c r="BB28" t="n">
-        <v>100.3803666666666</v>
+        <v>3.114999999999995</v>
       </c>
       <c r="BC28" t="n">
-        <v>167.4</v>
+        <v>8.452500000000001</v>
       </c>
       <c r="BD28" t="n">
-        <v>3.114999999999995</v>
+        <v>0.3264916666666669</v>
       </c>
       <c r="BE28" t="n">
-        <v>11.105</v>
+        <v>20.91</v>
       </c>
       <c r="BF28" t="n">
-        <v>8.256366666666667</v>
+        <v>6.1962</v>
       </c>
       <c r="BG28" t="n">
         <v>16.5775</v>
@@ -6309,28 +6309,28 @@
         <v>26.75509166666666</v>
       </c>
       <c r="BI28" t="n">
+        <v>21.285</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>100.3803666666666</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>26.8425</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>8.671758333333338</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>0.6425000000000001</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>0.007225000000000005</v>
+      </c>
+      <c r="BO28" t="n">
         <v>0.8875</v>
       </c>
-      <c r="BJ28" t="n">
+      <c r="BP28" t="n">
         <v>0.0002250000000000004</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="BL28" t="n">
-        <v>6.1962</v>
-      </c>
-      <c r="BM28" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="BN28" t="n">
-        <v>0.008633333333333337</v>
-      </c>
-      <c r="BO28" t="n">
-        <v>8.452500000000001</v>
-      </c>
-      <c r="BP28" t="n">
-        <v>0.3264916666666669</v>
       </c>
     </row>
     <row r="29">
@@ -6479,34 +6479,34 @@
         <v>1</v>
       </c>
       <c r="AW29" t="n">
-        <v>1.09</v>
+        <v>1.385</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.007066666666666663</v>
+        <v>0.03823333333333336</v>
       </c>
       <c r="AY29" t="n">
-        <v>27.32</v>
+        <v>4.25</v>
       </c>
       <c r="AZ29" t="n">
-        <v>1.5432</v>
+        <v>0.25</v>
       </c>
       <c r="BA29" t="n">
-        <v>18.0275</v>
+        <v>162.275</v>
       </c>
       <c r="BB29" t="n">
-        <v>8.816358333333334</v>
+        <v>25.00776666666665</v>
       </c>
       <c r="BC29" t="n">
-        <v>162.275</v>
+        <v>15.0225</v>
       </c>
       <c r="BD29" t="n">
-        <v>25.00776666666665</v>
+        <v>8.444425000000001</v>
       </c>
       <c r="BE29" t="n">
-        <v>4.25</v>
+        <v>1.9175</v>
       </c>
       <c r="BF29" t="n">
-        <v>0.25</v>
+        <v>3.514558333333333</v>
       </c>
       <c r="BG29" t="n">
         <v>44.08575</v>
@@ -6515,28 +6515,28 @@
         <v>5769.11141225</v>
       </c>
       <c r="BI29" t="n">
+        <v>18.0275</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>8.816358333333334</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>1.5432</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>0.007066666666666663</v>
+      </c>
+      <c r="BO29" t="n">
         <v>1.825</v>
       </c>
-      <c r="BJ29" t="n">
+      <c r="BP29" t="n">
         <v>0.2635666666666667</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>1.9175</v>
-      </c>
-      <c r="BL29" t="n">
-        <v>3.514558333333333</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>1.385</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>0.03823333333333336</v>
-      </c>
-      <c r="BO29" t="n">
-        <v>15.0225</v>
-      </c>
-      <c r="BP29" t="n">
-        <v>8.444425000000001</v>
       </c>
     </row>
     <row r="30">
@@ -6685,34 +6685,34 @@
         <v>1</v>
       </c>
       <c r="AW30" t="n">
-        <v>1.12</v>
+        <v>1.505</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.00826666666666666</v>
+        <v>0.1606333333333334</v>
       </c>
       <c r="AY30" t="n">
-        <v>27.47</v>
+        <v>2.4625</v>
       </c>
       <c r="AZ30" t="n">
-        <v>34.43453333333332</v>
+        <v>0.3005583333333334</v>
       </c>
       <c r="BA30" t="n">
-        <v>15.4375</v>
+        <v>162.63</v>
       </c>
       <c r="BB30" t="n">
-        <v>1.097358333333333</v>
+        <v>7.869199999999988</v>
       </c>
       <c r="BC30" t="n">
-        <v>162.63</v>
+        <v>13.22</v>
       </c>
       <c r="BD30" t="n">
-        <v>7.869199999999988</v>
+        <v>4.912266666666667</v>
       </c>
       <c r="BE30" t="n">
-        <v>2.4625</v>
+        <v>1.625</v>
       </c>
       <c r="BF30" t="n">
-        <v>0.3005583333333334</v>
+        <v>0.1891666666666667</v>
       </c>
       <c r="BG30" t="n">
         <v>45.0275</v>
@@ -6721,28 +6721,28 @@
         <v>5977.883025</v>
       </c>
       <c r="BI30" t="n">
+        <v>15.4375</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>1.097358333333333</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>34.43453333333332</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>0.00826666666666666</v>
+      </c>
+      <c r="BO30" t="n">
         <v>2.235</v>
       </c>
-      <c r="BJ30" t="n">
+      <c r="BP30" t="n">
         <v>0.004899999999999978</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>1.625</v>
-      </c>
-      <c r="BL30" t="n">
-        <v>0.1891666666666667</v>
-      </c>
-      <c r="BM30" t="n">
-        <v>1.505</v>
-      </c>
-      <c r="BN30" t="n">
-        <v>0.1606333333333334</v>
-      </c>
-      <c r="BO30" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="BP30" t="n">
-        <v>4.912266666666667</v>
       </c>
     </row>
   </sheetData>
